--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1018"/>
+  <dimension ref="A1:Y1021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60987,7 +60987,7 @@
       </c>
       <c r="R1017" s="2" t="inlineStr"/>
     </row>
-    <row r="1018">
+    <row r="1018" ht="15" customHeight="1">
       <c r="A1018" t="inlineStr">
         <is>
           <t>A 40484-2023</t>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61043,6 +61043,182 @@
         <v>0</v>
       </c>
       <c r="R1018" s="2" t="inlineStr"/>
+    </row>
+    <row r="1019" ht="15" customHeight="1">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>A 42892-2023</t>
+        </is>
+      </c>
+      <c r="B1019" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1019" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>ARVIKA</t>
+        </is>
+      </c>
+      <c r="G1019" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" s="2" t="inlineStr"/>
+    </row>
+    <row r="1020" ht="15" customHeight="1">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>A 43320-2023</t>
+        </is>
+      </c>
+      <c r="B1020" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1020" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>ARVIKA</t>
+        </is>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G1020" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" s="2" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>A 43364-2023</t>
+        </is>
+      </c>
+      <c r="B1021" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1021" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>ARVIKA</t>
+        </is>
+      </c>
+      <c r="G1021" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43511</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43516</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43516</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43517</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43531</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43535</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43544</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43546</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>43551</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>43552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43557</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43557</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43564</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43578</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43579</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43580</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43582</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43582</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43596</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43596</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43600</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43601</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43607</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43612</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43613</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43613</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43634</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43641</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43661</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43677</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43683</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43699</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43702</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43711</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43712</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43718</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43718</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43725</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43727</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43727</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>43728</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43735</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43738</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43775</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43786</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43790</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43798</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43802</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>43815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>43816</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43816</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>43816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>43817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43818</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>43818</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>43822</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43829</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43832</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43832</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43835</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43837</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43837</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43837</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43839</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43843</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43843</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43845</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43846</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43857</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43874</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43891</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43892</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43893</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43895</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43896</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43896</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43898</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43900</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43900</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43903</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43905</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43906</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43909</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43909</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43913</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43913</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43913</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43915</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43916</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43916</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43921</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43924</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43939</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43948</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43967</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43975</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43979</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43979</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43980</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43993</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43994</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44004</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44014</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44017</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44018</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44019</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44026</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44026</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44026</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44027</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44030</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44030</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44031</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44031</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44042</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44042</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44042</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44053</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44062</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44064</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44067</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44068</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44068</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44075</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44076</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44081</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44085</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44089</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44089</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44095</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44097</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44097</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44097</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44099</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44099</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44116</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44123</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44123</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>44124</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44124</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44126</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44132</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44137</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44138</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44139</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44146</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44146</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44151</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44151</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44151</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44151</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44151</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44154</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44155</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44158</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44159</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44161</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44166</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44167</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44172</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44179</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44183</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44193</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44193</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44200</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44200</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44208</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44209</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44211</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44211</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44216</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44217</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44221</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>44222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>44224</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>44231</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>44231</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44235</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44235</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44238</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44253</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44269</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44269</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44270</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44271</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44271</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44278</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44281</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44285</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44287</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44287</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44291</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>44295</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>44295</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>44298</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44298</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44312</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44315</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44320</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>44320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44322</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44327</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44328</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44340</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>44342</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44342</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44350</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44351</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44364</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44365</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44365</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44370</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44370</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44370</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44383</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44391</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44399</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44411</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44413</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>44417</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>44417</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>44419</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>44424</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>44424</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>44424</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>44424</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44424</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44425</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44425</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>44426</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44426</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44426</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44426</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44426</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44426</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44426</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44427</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44428</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44434</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44435</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44435</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44435</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44435</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44435</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44435</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44435</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44438</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44439</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44442</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44446</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44455</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44455</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44455</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44455</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44458</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44459</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44460</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44461</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44461</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44462</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44464</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44465</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44467</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44468</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44470</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>44475</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>44477</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>44487</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         <v>44488</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>44490</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>44493</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35179,7 +35179,7 @@
         <v>44495</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44496</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44501</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44508</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>44510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>44510</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>44511</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44511</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44511</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>44511</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>44512</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>44514</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>44515</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36220,7 +36220,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44518</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>44519</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
         <v>44524</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44525</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44529</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>44531</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44531</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44531</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>44531</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44532</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44536</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44539</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>44539</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44546</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44552</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>44557</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44558</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44558</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>44558</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44559</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>44559</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>44563</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44568</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>44572</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>44572</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38002,7 +38002,7 @@
         <v>44573</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44573</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44574</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44574</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44574</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>44578</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44588</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44589</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>44589</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>44592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44594</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44594</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44596</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44603</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44609</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44613</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44613</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>44615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44616</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44616</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>44616</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>44617</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>44620</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>44627</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>44642</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>44645</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44655</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>44655</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44656</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44663</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44669</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44669</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44669</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44669</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44671</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44680</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40662,7 +40662,7 @@
         <v>44690</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44697</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44698</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44699</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44704</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44705</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>44705</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>44706</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44706</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>44712</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44713</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44713</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44718</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44718</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44718</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44718</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44718</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44719</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44728</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44728</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44739</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44746</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44750</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44750</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44754</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44776</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44776</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44780</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44780</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44780</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>44781</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44783</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44784</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44797</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>44799</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>44802</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44803</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43329,7 +43329,7 @@
         <v>44804</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44806</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44806</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44808</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44814</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         <v>44814</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>44816</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>44816</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44816</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44817</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44820</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>44820</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44095,7 +44095,7 @@
         <v>44823</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>44823</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44827</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44830</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44830</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44834</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44839</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44839</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44839</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>44839</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44846</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44847</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>44851</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>44852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>44852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44855</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44858</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44858</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44859</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44859</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44866</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44867</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>44869</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>44869</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44872</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>44874</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>44874</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>44874</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>44874</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44874</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44874</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44874</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>44879</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>44880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44881</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44882</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44883</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44883</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44883</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44886</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>44887</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44887</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>44889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44890</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44890</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44894</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>44900</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>44901</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>44901</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44903</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44904</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>44906</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44906</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>44906</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44906</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44906</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44906</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44909</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44909</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44911</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>44917</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47972,7 +47972,7 @@
         <v>44917</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48029,7 +48029,7 @@
         <v>44917</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44917</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44917</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>44917</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>44917</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44917</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44917</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44917</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44917</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44917</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44917</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44917</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>44917</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>44917</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>44917</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>44922</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>44922</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>44922</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>44922</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44922</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44922</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44924</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44924</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>44924</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44928</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44931</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44931</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>44935</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44937</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>44938</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49749,7 +49749,7 @@
         <v>44939</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49806,7 +49806,7 @@
         <v>44939</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49863,7 +49863,7 @@
         <v>44944</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44949</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44950</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>44951</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50096,7 +50096,7 @@
         <v>44956</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50153,7 +50153,7 @@
         <v>44959</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44964</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44970</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44971</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>44971</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50495,7 +50495,7 @@
         <v>44972</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>44972</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>44972</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>44973</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44974</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44977</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>44978</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>44978</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>44978</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>44978</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>44978</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>44979</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>44980</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>44980</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>44980</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>44981</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>44981</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>44981</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44981</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>44981</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>44984</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>44985</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>44985</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>44985</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51873,7 +51873,7 @@
         <v>44986</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>44992</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51992,7 +51992,7 @@
         <v>44992</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52049,7 +52049,7 @@
         <v>44995</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52106,7 +52106,7 @@
         <v>44995</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52163,7 +52163,7 @@
         <v>44998</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52220,7 +52220,7 @@
         <v>45000</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45000</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45001</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45001</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52453,7 +52453,7 @@
         <v>45001</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52510,7 +52510,7 @@
         <v>45002</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>45002</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         <v>45005</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
         <v>45007</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52738,7 +52738,7 @@
         <v>45007</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         <v>45007</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52852,7 +52852,7 @@
         <v>45007</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52909,7 +52909,7 @@
         <v>45012</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52966,7 +52966,7 @@
         <v>45012</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>45012</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>45012</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53137,7 +53137,7 @@
         <v>45013</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53194,7 +53194,7 @@
         <v>45013</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53251,7 +53251,7 @@
         <v>45013</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45014</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45015</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45022</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45027</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45028</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45029</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45030</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45030</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45030</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45030</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45033</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>45035</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45035</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45035</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45035</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45035</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>45036</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>45040</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54369,7 +54369,7 @@
         <v>45041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54431,7 +54431,7 @@
         <v>45043</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54488,7 +54488,7 @@
         <v>45044</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45048</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>45050</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>45051</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45055</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45057</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45058</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>45058</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45058</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55021,7 +55021,7 @@
         <v>45058</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55083,7 +55083,7 @@
         <v>45061</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45063</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         <v>45063</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55254,7 +55254,7 @@
         <v>45068</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55311,7 +55311,7 @@
         <v>45068</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55368,7 +55368,7 @@
         <v>45070</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45070</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55482,7 +55482,7 @@
         <v>45070</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55539,7 +55539,7 @@
         <v>45071</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55596,7 +55596,7 @@
         <v>45072</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55658,7 +55658,7 @@
         <v>45072</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55772,7 +55772,7 @@
         <v>45074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -55829,7 +55829,7 @@
         <v>45076</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -55886,7 +55886,7 @@
         <v>45077</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45077</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45077</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56072,7 +56072,7 @@
         <v>45081</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45083</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56186,7 +56186,7 @@
         <v>45083</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56243,7 +56243,7 @@
         <v>45083</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56300,7 +56300,7 @@
         <v>45083</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56357,7 +56357,7 @@
         <v>45083</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45084</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45084</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45085</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -56595,7 +56595,7 @@
         <v>45085</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
         <v>45086</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         <v>45086</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45086</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -56828,7 +56828,7 @@
         <v>45086</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45086</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -56947,7 +56947,7 @@
         <v>45086</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45089</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45089</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45089</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57175,7 +57175,7 @@
         <v>45090</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45092</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45093</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57351,7 +57351,7 @@
         <v>45093</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57408,7 +57408,7 @@
         <v>45093</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45095</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57527,7 +57527,7 @@
         <v>45097</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>45098</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45099</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -57703,7 +57703,7 @@
         <v>45103</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45104</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45104</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45106</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -57936,7 +57936,7 @@
         <v>45107</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45107</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45109</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58117,7 +58117,7 @@
         <v>45109</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58174,7 +58174,7 @@
         <v>45109</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58231,7 +58231,7 @@
         <v>45111</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         <v>45113</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58345,7 +58345,7 @@
         <v>45113</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
         <v>45114</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58459,7 +58459,7 @@
         <v>45118</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58516,7 +58516,7 @@
         <v>45119</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58573,7 +58573,7 @@
         <v>45121</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -58630,7 +58630,7 @@
         <v>45124</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -58687,7 +58687,7 @@
         <v>45124</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -58744,7 +58744,7 @@
         <v>45124</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45125</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45131</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         <v>45131</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -58977,7 +58977,7 @@
         <v>45132</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59034,7 +59034,7 @@
         <v>45140</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59091,7 +59091,7 @@
         <v>45140</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59148,7 +59148,7 @@
         <v>45141</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59205,7 +59205,7 @@
         <v>45145</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59267,7 +59267,7 @@
         <v>45145</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59329,7 +59329,7 @@
         <v>45146</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59386,7 +59386,7 @@
         <v>45146</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59443,7 +59443,7 @@
         <v>45146</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         <v>45147</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59557,7 +59557,7 @@
         <v>45147</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -59614,7 +59614,7 @@
         <v>45147</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -59671,7 +59671,7 @@
         <v>45149</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         <v>45153</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -59795,7 +59795,7 @@
         <v>45154</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -59852,7 +59852,7 @@
         <v>45159</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -59909,7 +59909,7 @@
         <v>45159</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -59966,7 +59966,7 @@
         <v>45160</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45160</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60080,7 +60080,7 @@
         <v>45161</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60137,7 +60137,7 @@
         <v>45161</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60194,7 +60194,7 @@
         <v>45162</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60251,7 +60251,7 @@
         <v>45163</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60313,7 +60313,7 @@
         <v>45163</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60370,7 +60370,7 @@
         <v>45163</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         <v>45164</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60484,7 +60484,7 @@
         <v>45166</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60541,7 +60541,7 @@
         <v>45166</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60598,7 +60598,7 @@
         <v>45167</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -60655,7 +60655,7 @@
         <v>45168</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -60712,7 +60712,7 @@
         <v>45169</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -60769,7 +60769,7 @@
         <v>45169</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -60826,7 +60826,7 @@
         <v>45169</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -60883,7 +60883,7 @@
         <v>45169</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -60940,7 +60940,7 @@
         <v>45169</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45170</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61054,7 +61054,7 @@
         <v>45182</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -61111,7 +61111,7 @@
         <v>45183</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -61173,7 +61173,7 @@
         <v>45183</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>

--- a/Översikt ARVIKA.xlsx
+++ b/Översikt ARVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43356</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44295</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43418</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43819</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44585</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44872</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43332</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43476</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43634</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43761</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43835</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44008</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44035</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44052</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44132</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44134</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44557</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44602</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44728</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44893</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45016</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45079</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45124</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43350</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43376</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43396</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43411</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43420</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43426</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43440</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43472</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43478</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43487</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43490</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43493</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43493</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43493</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43496</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43499</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43500</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43503</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43503</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43508</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43511</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>